--- a/Greenfield Model copy/OREIA3_2017/data/link.xlsx
+++ b/Greenfield Model copy/OREIA3_2017/data/link.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Desktop/Edinburgh MMath Degree Stuff/MMath Diss/Greenfield Model copy/OREIA3_2017/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Desktop/Edinburgh MMath Degree Stuff/MMath Diss/Year5-MMath-Diss/Greenfield Model copy/OREIA3_2017/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FA5CCC-6609-DC43-BA42-23CF3C2C9E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6254797F-4D34-B343-A72C-D2D37F76F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16160" yWindow="740" windowWidth="13240" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="8480" windowWidth="13240" windowHeight="10680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="definitions" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">indices!$D$1:$D$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">indices!$D$1:$D$67</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
   <si>
     <t>model_name</t>
   </si>
@@ -277,18 +277,9 @@
     <t>co2gen</t>
   </si>
   <si>
-    <t>HnS</t>
-  </si>
-  <si>
-    <t>TES</t>
-  </si>
-  <si>
     <t>M11</t>
   </si>
   <si>
-    <t>heub</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -298,29 +289,14 @@
     <t>HL1</t>
   </si>
   <si>
-    <t>M12</t>
-  </si>
-  <si>
     <t>hlub</t>
-  </si>
-  <si>
-    <t>HL2</t>
-  </si>
-  <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>HL3</t>
-  </si>
-  <si>
-    <t>M14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +322,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -398,6 +388,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,10 +765,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -905,10 +907,10 @@
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -919,10 +921,10 @@
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -931,60 +933,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -997,10 +957,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1187,10 +1147,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
@@ -1211,38 +1171,32 @@
       <c r="J6" s="5">
         <v>0.99</v>
       </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J7" s="5">
         <v>0.99</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1250,75 +1204,81 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>-1</v>
+      </c>
       <c r="H8" t="s">
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="J8" s="5">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="4">
-        <v>-1</v>
-      </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J9" s="5">
-        <v>1.01</v>
+        <v>0.99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="12">
         <v>0.99</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1326,10 +1286,10 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -1340,42 +1300,14 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
+      <c r="G11" s="13"/>
       <c r="H11" t="s">
         <v>30</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="7">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="J11" s="14">
         <v>0.99</v>
       </c>
     </row>

--- a/Greenfield Model copy/OREIA3_2017/data/link.xlsx
+++ b/Greenfield Model copy/OREIA3_2017/data/link.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Desktop/Edinburgh MMath Degree Stuff/MMath Diss/Year5-MMath-Diss/Greenfield Model copy/OREIA3_2017/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6254797F-4D34-B343-A72C-D2D37F76F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8FD9F6-325E-4648-B728-925CCBBBE2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="8480" windowWidth="13240" windowHeight="10680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="8900" windowWidth="15060" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
   <si>
     <t>model_name</t>
   </si>
@@ -290,6 +290,30 @@
   </si>
   <si>
     <t>hlub</t>
+  </si>
+  <si>
+    <t>heub</t>
+  </si>
+  <si>
+    <t>HnS</t>
+  </si>
+  <si>
+    <t>TES</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>HL2</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>HL3</t>
+  </si>
+  <si>
+    <t>M14</t>
   </si>
 </sst>
 </file>
@@ -765,10 +789,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -947,6 +971,48 @@
         <v>83</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -957,10 +1023,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1308,6 +1374,36 @@
         <v>31</v>
       </c>
       <c r="J11" s="14">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="12">
         <v>0.99</v>
       </c>
     </row>

--- a/Greenfield Model copy/OREIA3_2017/data/link.xlsx
+++ b/Greenfield Model copy/OREIA3_2017/data/link.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Desktop/Edinburgh MMath Degree Stuff/MMath Diss/Year5-MMath-Diss/Greenfield Model copy/OREIA3_2017/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8FD9F6-325E-4648-B728-925CCBBBE2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC8F178-16C9-BF42-AD6E-1E17FD91EAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="8900" windowWidth="15060" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="9080" windowWidth="15060" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">indices!$D$1:$D$67</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -292,15 +305,9 @@
     <t>hlub</t>
   </si>
   <si>
-    <t>heub</t>
-  </si>
-  <si>
     <t>HnS</t>
   </si>
   <si>
-    <t>TES</t>
-  </si>
-  <si>
     <t>M12</t>
   </si>
   <si>
@@ -314,6 +321,12 @@
   </si>
   <si>
     <t>M14</t>
+  </si>
+  <si>
+    <t>QMass</t>
+  </si>
+  <si>
+    <t>TTES</t>
   </si>
 </sst>
 </file>
@@ -791,8 +804,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -973,16 +986,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>89</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -990,13 +1003,13 @@
         <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1004,13 +1017,13 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1039,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1382,10 +1395,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>76</v>
